--- a/project_submission/00_project/annotation_data/annotation_data_raw.xlsx
+++ b/project_submission/00_project/annotation_data/annotation_data_raw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminsarkhosh/Documents/GitHub/machine-learning-bsc-thesis-2024/annotation_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminsarkhosh/Documents/GitHub/machine-learning-bsc-thesis-2024/project_submission/00_project/annotation_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD7211-796B-B64E-B0A5-65583969DD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BFDC55-1A26-9141-AF45-7075760F1FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{BAC2C7AC-FDA5-B444-AA4B-B7C89A61CE88}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{BAC2C7AC-FDA5-B444-AA4B-B7C89A61CE88}"/>
   </bookViews>
   <sheets>
     <sheet name="new annotation" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1010,9 +1010,6 @@
 The NC test set contains 198 tumor cases, 202 completely normal cases, and 100 “hard” non-tumor cases which may have larger image noise, artifact, ascites, diffuse liver diseases such as hepatitis and steatosis. These cases are used to test the robustness of the model in real-world screening scenario with diverse tumor-free images.</t>
   </si>
   <si>
-    <t xml:space="preserve">abdomen, thorax, head and neck </t>
-  </si>
-  <si>
     <t>https://arxiv.org/pdf/2010.14808.pdf
 https://arxiv.org/pdf/2012.09279.pdf
 https://www.sciencedirect.com/science/article/pii/S0167814021062174</t>
@@ -6898,6 +6895,9 @@
 This study used an imaging-only cohort from the NLST [28] and three multimodal cohorts from our home institution with IRB approval (Table 1).
 For the NLST cohort (https://cdas.cancer.gov/nlst/), we identified cases who had a biopsy-confirmed diagnosis of lung malignancy and controls who had a positive screening result for an SPN but no lung malignancy. We randomly sampled from the control group to obtain a 4:6 case control ratio. Next, EHRPulmonary was the unlabeled dataset used to learn clinical signatures in an unsupervised manner. We searched all records in our EHR archives for patients who had billing codes from a broad set of pulmonary conditions, intending to capture pulmonary conditions beyond just malignancy. Additionally, Image-EHR was a labeled dataset with paired imaging and EHRs. We searched our institution’s imaging archive for patients with three chest CTs within five years. In the EHR-Image cohort, malignant cases were labeled as those with a billing code for lung malignancy and no cancer of any type prior. Importantly, this case criteria includes metastasis from cancer in non-lung locations. Benign controls were those who did not meet this criterion. Finally, Image-EHR-SPN was a subset of Image-EHR with the inclusion criteria that subjects had a billing code for an SPN and no cancer of any type prior to the SPN. We labeled malignant cases as those with a lung malignancy billing code occurring within three years after any scan and only used data collected before the lung malignancy code. All data within the five-year period were used for controls. We removed all billing codes relating to lung malignancy. A description of the billing codes used to define SPN and lung cancer events are provided in Supplementary 1.2.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">abdomen, thorax, head and neck, large bowel, duodenum, spinal cord, liver, spleen, small bowel, pancreas, kidney, stomach, gallbladder, esophagus, trachea, lung, heart, brainstem, mandible, optical chiasm, optical nerve, parotid, submandibular gland </t>
   </si>
 </sst>
 </file>
@@ -7050,7 +7050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7110,12 +7110,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7816,7 +7810,24 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AF35DC2D-D5D1-6741-94D0-D2ED900E093C}" name="merged_annotations_2" displayName="merged_annotations_2" ref="A1:AB101" tableType="queryTable" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="A1:AB101" xr:uid="{AF35DC2D-D5D1-6741-94D0-D2ED900E093C}"/>
+  <autoFilter ref="A1:AB101" xr:uid="{AF35DC2D-D5D1-6741-94D0-D2ED900E093C}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="3"/>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="abdomen, thorax, head and neck"/>
+        <filter val="brain, abdomen, pelvic region, prostate, liver"/>
+        <filter val="breast, kidney, renal, colorectal"/>
+        <filter val="colorectal, breast, colon"/>
+        <filter val="liver, lung, lymp nodes"/>
+        <filter val="prostate, brain, abdomen, kidney, liver"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB101">
     <sortCondition ref="A1:A101"/>
   </sortState>
@@ -10976,8 +10987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C433A4-9788-B541-A227-1AF436C695EF}">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView topLeftCell="H67" workbookViewId="0">
-      <selection activeCell="AB49" sqref="AB49"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10998,13 +11009,13 @@
         <v>247</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>346</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>133</v>
@@ -11034,10 +11045,10 @@
         <v>125</v>
       </c>
       <c r="P1" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>381</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>123</v>
@@ -11049,10 +11060,10 @@
         <v>121</v>
       </c>
       <c r="U1" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>343</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>120</v>
@@ -11064,7 +11075,7 @@
         <v>118</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA1" s="11" t="s">
         <v>242</v>
@@ -11073,7 +11084,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>116</v>
       </c>
@@ -11087,7 +11098,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -11114,10 +11125,10 @@
         <v>1</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P2" s="11">
         <v>0</v>
@@ -11132,25 +11143,25 @@
         <v>0</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U2" s="11">
         <v>0</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W2" s="11">
         <v>0</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y2" s="11">
         <v>0</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA2" s="11">
         <v>1</v>
@@ -11159,7 +11170,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>113</v>
       </c>
@@ -11173,7 +11184,7 @@
         <v>156</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
@@ -11218,13 +11229,13 @@
         <v>1</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U3" s="11">
         <v>0</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W3" s="11">
         <v>1</v>
@@ -11245,7 +11256,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>107</v>
       </c>
@@ -11259,7 +11270,7 @@
         <v>156</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -11310,19 +11321,19 @@
         <v>0</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W4" s="11">
         <v>0</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y4" s="11">
         <v>0</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA4" s="11">
         <v>0</v>
@@ -11331,8 +11342,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="11">
@@ -11345,7 +11356,7 @@
         <v>156</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
@@ -11363,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L5" s="11">
         <v>2</v>
@@ -11372,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>86</v>
@@ -11381,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R5" s="11">
         <v>0</v>
@@ -11390,25 +11401,25 @@
         <v>0</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U5" s="11">
         <v>0</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W5" s="11">
         <v>0</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y5" s="11">
         <v>0</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA5" s="11">
         <v>1</v>
@@ -11417,7 +11428,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>102</v>
       </c>
@@ -11431,7 +11442,7 @@
         <v>156</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F6" s="11">
         <v>1</v>
@@ -11476,25 +11487,25 @@
         <v>0</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U6" s="11">
         <v>0</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W6" s="11">
         <v>0</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y6" s="11">
         <v>0</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA6" s="11">
         <v>1</v>
@@ -11503,8 +11514,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="11">
@@ -11517,7 +11528,7 @@
         <v>156</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F7" s="11">
         <v>1</v>
@@ -11547,13 +11558,13 @@
         <v>254</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P7" s="11">
         <v>1</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R7" s="11">
         <v>1</v>
@@ -11562,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U7" s="11">
         <v>1</v>
@@ -11574,13 +11585,13 @@
         <v>0</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y7" s="11">
         <v>0</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA7" s="11">
         <v>1</v>
@@ -11589,7 +11600,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>97</v>
       </c>
@@ -11603,7 +11614,7 @@
         <v>156</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F8" s="11">
         <v>1</v>
@@ -11648,25 +11659,25 @@
         <v>0</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U8" s="11">
         <v>0</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W8" s="11">
         <v>0</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y8" s="11">
         <v>0</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA8" s="11">
         <v>0</v>
@@ -11675,7 +11686,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>94</v>
       </c>
@@ -11689,7 +11700,7 @@
         <v>156</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F9" s="11">
         <v>1</v>
@@ -11707,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L9" s="11">
         <v>0</v>
@@ -11761,7 +11772,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>88</v>
       </c>
@@ -11775,7 +11786,7 @@
         <v>156</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
@@ -11811,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R10" s="11">
         <v>1</v>
@@ -11820,19 +11831,19 @@
         <v>1</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U10" s="11">
         <v>0</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W10" s="11">
         <v>1</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y10" s="11">
         <v>1</v>
@@ -11847,7 +11858,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>82</v>
       </c>
@@ -11861,7 +11872,7 @@
         <v>156</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F11" s="11">
         <v>1</v>
@@ -11879,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
@@ -11888,11 +11899,11 @@
         <v>2</v>
       </c>
       <c r="N11" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="O11" s="11" t="s">
-        <v>332</v>
-      </c>
       <c r="P11" s="11">
         <v>0</v>
       </c>
@@ -11906,25 +11917,25 @@
         <v>0</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U11" s="11">
         <v>1</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="W11" s="11">
         <v>0</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
       </c>
       <c r="Z11" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA11" s="11">
         <v>0</v>
@@ -11933,7 +11944,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
@@ -11947,7 +11958,7 @@
         <v>156</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F12" s="11">
         <v>1</v>
@@ -11965,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L12" s="11">
         <v>1</v>
@@ -11992,25 +12003,25 @@
         <v>0</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U12" s="11">
         <v>0</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W12" s="11">
         <v>0</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y12" s="11">
         <v>0</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA12" s="11">
         <v>1</v>
@@ -12019,7 +12030,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>81</v>
       </c>
@@ -12033,7 +12044,7 @@
         <v>156</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F13" s="11">
         <v>1</v>
@@ -12051,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -12060,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>15</v>
@@ -12078,25 +12089,25 @@
         <v>0</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U13" s="11">
         <v>0</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W13" s="11">
         <v>1</v>
       </c>
       <c r="X13" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>335</v>
       </c>
       <c r="AA13" s="11">
         <v>0</v>
@@ -12105,7 +12116,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>80</v>
       </c>
@@ -12119,7 +12130,7 @@
         <v>156</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F14" s="11">
         <v>1</v>
@@ -12149,7 +12160,7 @@
         <v>159</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P14" s="11">
         <v>0</v>
@@ -12170,19 +12181,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W14" s="11">
         <v>0</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y14" s="11">
         <v>0</v>
       </c>
       <c r="Z14" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA14" s="11">
         <v>1</v>
@@ -12191,7 +12202,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>79</v>
       </c>
@@ -12205,34 +12216,34 @@
         <v>156</v>
       </c>
       <c r="E15" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>15</v>
@@ -12250,25 +12261,25 @@
         <v>0</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U15" s="11">
         <v>0</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W15" s="11">
         <v>0</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y15" s="11">
         <v>0</v>
       </c>
       <c r="Z15" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA15" s="11">
         <v>0</v>
@@ -12278,8 +12289,8 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>465</v>
+      <c r="A16" s="11" t="s">
+        <v>464</v>
       </c>
       <c r="B16" s="11">
         <v>71</v>
@@ -12291,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F16" s="11">
         <v>1</v>
@@ -12318,10 +12329,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P16" s="11">
         <v>0</v>
@@ -12336,25 +12347,25 @@
         <v>0</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U16" s="11">
         <v>0</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W16" s="11">
         <v>0</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y16" s="11">
         <v>0</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA16" s="11">
         <v>1</v>
@@ -12363,9 +12374,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B17" s="11">
         <v>11</v>
@@ -12377,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F17" s="11">
         <v>1</v>
@@ -12404,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>101</v>
@@ -12422,25 +12433,25 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="U17" s="11">
+        <v>1</v>
+      </c>
+      <c r="V17" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="U17" s="11">
-        <v>1</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>477</v>
-      </c>
       <c r="W17" s="11">
         <v>0</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA17" s="11">
         <v>1</v>
@@ -12449,9 +12460,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B18" s="11">
         <v>33</v>
@@ -12463,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -12508,25 +12519,25 @@
         <v>0</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U18" s="11">
         <v>0</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W18" s="11">
         <v>1</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Y18" s="11">
         <v>0</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA18" s="11">
         <v>1</v>
@@ -12535,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>78</v>
       </c>
@@ -12549,7 +12560,7 @@
         <v>156</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
@@ -12567,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L19" s="11">
         <v>0</v>
@@ -12576,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>105</v>
@@ -12594,25 +12605,25 @@
         <v>0</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U19" s="11">
         <v>1</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W19" s="11">
         <v>0</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA19" s="11">
         <v>0</v>
@@ -12621,7 +12632,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>77</v>
       </c>
@@ -12635,7 +12646,7 @@
         <v>156</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
@@ -12680,25 +12691,25 @@
         <v>0</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U20" s="11">
         <v>1</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W20" s="11">
         <v>0</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y20" s="11">
         <v>0</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA20" s="11">
         <v>0</v>
@@ -12707,7 +12718,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -12721,7 +12732,7 @@
         <v>156</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F21" s="11">
         <v>1</v>
@@ -12739,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L21" s="11">
         <v>0</v>
@@ -12748,7 +12759,7 @@
         <v>6</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>86</v>
@@ -12757,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R21" s="11">
         <v>1</v>
@@ -12766,25 +12777,25 @@
         <v>1</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U21" s="11">
         <v>0</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W21" s="11">
         <v>0</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA21" s="11">
         <v>0</v>
@@ -12793,7 +12804,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>74</v>
       </c>
@@ -12807,7 +12818,7 @@
         <v>156</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F22" s="11">
         <v>0</v>
@@ -12825,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L22" s="11">
         <v>2</v>
@@ -12834,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O22" s="11" t="s">
         <v>163</v>
@@ -12852,25 +12863,25 @@
         <v>0</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U22" s="11">
         <v>1</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W22" s="11">
         <v>0</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y22" s="11">
         <v>0</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA22" s="11">
         <v>1</v>
@@ -12879,7 +12890,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>73</v>
       </c>
@@ -12893,7 +12904,7 @@
         <v>156</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -12911,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L23" s="11">
         <v>5</v>
@@ -12920,11 +12931,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="O23" s="11" t="s">
-        <v>358</v>
-      </c>
       <c r="P23" s="11">
         <v>0</v>
       </c>
@@ -12938,25 +12949,25 @@
         <v>0</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U23" s="11">
         <v>0</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W23" s="11">
         <v>0</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y23" s="11">
         <v>0</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA23" s="11">
         <v>1</v>
@@ -12965,7 +12976,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>76</v>
       </c>
@@ -12979,7 +12990,7 @@
         <v>156</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F24" s="11">
         <v>1</v>
@@ -12997,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L24" s="11">
         <v>0</v>
@@ -13024,25 +13035,25 @@
         <v>0</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U24" s="11">
         <v>0</v>
       </c>
       <c r="V24" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W24" s="11">
         <v>0</v>
       </c>
       <c r="X24" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y24" s="11">
         <v>0</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA24" s="11">
         <v>0</v>
@@ -13051,7 +13062,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>72</v>
       </c>
@@ -13065,7 +13076,7 @@
         <v>156</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
@@ -13095,7 +13106,7 @@
         <v>16</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P25" s="11">
         <v>0</v>
@@ -13110,25 +13121,25 @@
         <v>1</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="U25" s="11">
         <v>0</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W25" s="11">
         <v>0</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y25" s="11">
         <v>0</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA25" s="11">
         <v>0</v>
@@ -13137,7 +13148,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>71</v>
       </c>
@@ -13151,7 +13162,7 @@
         <v>156</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F26" s="11">
         <v>0</v>
@@ -13169,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L26" s="11">
         <v>0</v>
@@ -13196,25 +13207,25 @@
         <v>0</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U26" s="11">
         <v>0</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W26" s="11">
         <v>0</v>
       </c>
       <c r="X26" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y26" s="11">
         <v>0</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA26" s="11">
         <v>0</v>
@@ -13223,7 +13234,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>68</v>
       </c>
@@ -13237,7 +13248,7 @@
         <v>156</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F27" s="11">
         <v>1</v>
@@ -13255,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L27" s="11">
         <v>0</v>
@@ -13264,16 +13275,16 @@
         <v>0</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P27" s="11">
         <v>1</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R27" s="11">
         <v>1</v>
@@ -13282,25 +13293,25 @@
         <v>0</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U27" s="11">
         <v>1</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W27" s="11">
         <v>0</v>
       </c>
       <c r="X27" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y27" s="11">
         <v>0</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA27" s="11">
         <v>0</v>
@@ -13309,7 +13320,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>67</v>
       </c>
@@ -13323,7 +13334,7 @@
         <v>156</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F28" s="11">
         <v>0</v>
@@ -13341,7 +13352,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L28" s="11">
         <v>0</v>
@@ -13368,34 +13379,34 @@
         <v>0</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U28" s="11">
         <v>0</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W28" s="11">
         <v>0</v>
       </c>
       <c r="X28" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y28" s="11">
         <v>0</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA28" s="11">
         <v>1</v>
       </c>
       <c r="AB28" s="11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
@@ -13409,7 +13420,7 @@
         <v>156</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F29" s="11">
         <v>1</v>
@@ -13427,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L29" s="11">
         <v>2</v>
@@ -13454,25 +13465,25 @@
         <v>0</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U29" s="11">
         <v>0</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W29" s="11">
         <v>0</v>
       </c>
       <c r="X29" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y29" s="11">
         <v>0</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA29" s="11">
         <v>1</v>
@@ -13481,7 +13492,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
@@ -13495,7 +13506,7 @@
         <v>156</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -13513,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L30" s="11">
         <v>0</v>
@@ -13522,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O30" s="11" t="s">
         <v>154</v>
@@ -13540,25 +13551,25 @@
         <v>0</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U30" s="11">
         <v>0</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W30" s="11">
         <v>0</v>
       </c>
       <c r="X30" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y30" s="11">
         <v>0</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA30" s="11">
         <v>0</v>
@@ -13567,7 +13578,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>64</v>
       </c>
@@ -13581,7 +13592,7 @@
         <v>156</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F31" s="11">
         <v>0</v>
@@ -13599,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L31" s="11">
         <v>0</v>
@@ -13626,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U31" s="11">
         <v>1</v>
@@ -13638,13 +13649,13 @@
         <v>0</v>
       </c>
       <c r="X31" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y31" s="11">
         <v>0</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA31" s="11">
         <v>0</v>
@@ -13667,7 +13678,7 @@
         <v>156</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F32" s="11">
         <v>1</v>
@@ -13685,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L32" s="11">
         <v>3</v>
@@ -13697,13 +13708,13 @@
         <v>174</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P32" s="11">
         <v>1</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R32" s="11">
         <v>0</v>
@@ -13712,25 +13723,25 @@
         <v>0</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U32" s="11">
         <v>0</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W32" s="11">
         <v>0</v>
       </c>
       <c r="X32" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y32" s="11">
         <v>0</v>
       </c>
       <c r="Z32" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA32" s="11">
         <v>1</v>
@@ -13739,7 +13750,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>62</v>
       </c>
@@ -13753,7 +13764,7 @@
         <v>156</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F33" s="11">
         <v>1</v>
@@ -13783,7 +13794,7 @@
         <v>16</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P33" s="11">
         <v>0</v>
@@ -13798,25 +13809,25 @@
         <v>1</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U33" s="11">
         <v>0</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W33" s="11">
         <v>0</v>
       </c>
       <c r="X33" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y33" s="11">
         <v>0</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA33" s="11">
         <v>0</v>
@@ -13825,7 +13836,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>61</v>
       </c>
@@ -13839,7 +13850,7 @@
         <v>156</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F34" s="11">
         <v>1</v>
@@ -13884,25 +13895,25 @@
         <v>0</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U34" s="11">
         <v>0</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W34" s="11">
         <v>0</v>
       </c>
       <c r="X34" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y34" s="11">
         <v>0</v>
       </c>
       <c r="Z34" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA34" s="11">
         <v>1</v>
@@ -13925,7 +13936,7 @@
         <v>156</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F35" s="11">
         <v>1</v>
@@ -13943,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L35" s="11">
         <v>1</v>
@@ -13952,16 +13963,16 @@
         <v>0</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P35" s="11">
         <v>1</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R35" s="11">
         <v>0</v>
@@ -13970,25 +13981,25 @@
         <v>0</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U35" s="11">
         <v>0</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W35" s="11">
         <v>0</v>
       </c>
       <c r="X35" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y35" s="11">
         <v>0</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA35" s="11">
         <v>1</v>
@@ -13997,8 +14008,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="11">
@@ -14008,10 +14019,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F36" s="11">
         <v>1</v>
@@ -14029,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L36" s="11">
         <v>0</v>
@@ -14038,7 +14049,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O36" s="11" t="s">
         <v>101</v>
@@ -14056,25 +14067,25 @@
         <v>1</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U36" s="11">
         <v>0</v>
       </c>
       <c r="V36" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W36" s="11">
         <v>0</v>
       </c>
       <c r="X36" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y36" s="11">
         <v>0</v>
       </c>
       <c r="Z36" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA36" s="11">
         <v>1</v>
@@ -14083,7 +14094,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>69</v>
       </c>
@@ -14097,7 +14108,7 @@
         <v>156</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F37" s="11">
         <v>1</v>
@@ -14124,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>101</v>
@@ -14142,25 +14153,25 @@
         <v>0</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U37" s="11">
         <v>0</v>
       </c>
       <c r="V37" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W37" s="11">
         <v>0</v>
       </c>
       <c r="X37" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y37" s="11">
         <v>0</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA37" s="11">
         <v>0</v>
@@ -14169,7 +14180,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
@@ -14183,7 +14194,7 @@
         <v>156</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -14228,25 +14239,25 @@
         <v>0</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U38" s="11">
         <v>0</v>
       </c>
       <c r="V38" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W38" s="11">
         <v>0</v>
       </c>
       <c r="X38" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y38" s="11">
         <v>0</v>
       </c>
       <c r="Z38" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA38" s="11">
         <v>0</v>
@@ -14255,9 +14266,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B39" s="11">
         <v>38</v>
@@ -14269,7 +14280,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F39" s="11">
         <v>1</v>
@@ -14296,7 +14307,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>105</v>
@@ -14305,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R39" s="11">
         <v>1</v>
@@ -14314,25 +14325,25 @@
         <v>0</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U39" s="11">
         <v>1</v>
       </c>
       <c r="V39" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="W39" s="11">
+        <v>1</v>
+      </c>
+      <c r="X39" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="W39" s="11">
-        <v>1</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>483</v>
-      </c>
       <c r="Y39" s="11">
         <v>1</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA39" s="11">
         <v>0</v>
@@ -14341,8 +14352,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="11">
@@ -14355,7 +14366,7 @@
         <v>156</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F40" s="11">
         <v>1</v>
@@ -14385,7 +14396,7 @@
         <v>16</v>
       </c>
       <c r="O40" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P40" s="11">
         <v>0</v>
@@ -14400,25 +14411,25 @@
         <v>0</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U40" s="11">
         <v>0</v>
       </c>
       <c r="V40" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W40" s="11">
         <v>0</v>
       </c>
       <c r="X40" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA40" s="11">
         <v>0</v>
@@ -14427,7 +14438,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>57</v>
       </c>
@@ -14441,7 +14452,7 @@
         <v>156</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F41" s="11">
         <v>0</v>
@@ -14459,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L41" s="11">
         <v>0</v>
@@ -14486,25 +14497,25 @@
         <v>0</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U41" s="11">
         <v>0</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W41" s="11">
         <v>0</v>
       </c>
       <c r="X41" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y41" s="11">
         <v>0</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA41" s="11">
         <v>1</v>
@@ -14513,9 +14524,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B42" s="11">
         <v>56</v>
@@ -14527,38 +14538,38 @@
         <v>1</v>
       </c>
       <c r="E42" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="O42" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="F42" s="11">
-        <v>1</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11">
-        <v>1</v>
-      </c>
-      <c r="L42" s="11">
-        <v>0</v>
-      </c>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
-      <c r="N42" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="O42" s="11" t="s">
-        <v>486</v>
-      </c>
       <c r="P42" s="11">
         <v>0</v>
       </c>
@@ -14572,25 +14583,25 @@
         <v>0</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U42" s="11">
         <v>0</v>
       </c>
       <c r="V42" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W42" s="11">
         <v>0</v>
       </c>
       <c r="X42" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y42" s="11">
         <v>0</v>
       </c>
       <c r="Z42" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA42" s="11">
         <v>0</v>
@@ -14599,7 +14610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>56</v>
       </c>
@@ -14613,7 +14624,7 @@
         <v>156</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F43" s="11">
         <v>1</v>
@@ -14658,25 +14669,25 @@
         <v>0</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U43" s="11">
         <v>0</v>
       </c>
       <c r="V43" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W43" s="11">
         <v>1</v>
       </c>
       <c r="X43" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y43" s="11">
         <v>0</v>
       </c>
       <c r="Z43" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA43" s="11">
         <v>1</v>
@@ -14685,7 +14696,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>55</v>
       </c>
@@ -14699,7 +14710,7 @@
         <v>156</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F44" s="11">
         <v>1</v>
@@ -14717,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L44" s="11">
         <v>2</v>
@@ -14726,10 +14737,10 @@
         <v>0</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P44" s="11">
         <v>0</v>
@@ -14744,25 +14755,25 @@
         <v>0</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U44" s="11">
         <v>0</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W44" s="11">
         <v>0</v>
       </c>
       <c r="X44" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y44" s="11">
         <v>0</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA44" s="11">
         <v>0</v>
@@ -14771,7 +14782,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>54</v>
       </c>
@@ -14830,25 +14841,25 @@
         <v>0</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U45" s="11">
         <v>0</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W45" s="11">
         <v>0</v>
       </c>
       <c r="X45" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y45" s="11">
         <v>0</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA45" s="11">
         <v>0</v>
@@ -14857,7 +14868,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>53</v>
       </c>
@@ -14871,7 +14882,7 @@
         <v>156</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
@@ -14889,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L46" s="11">
         <v>0</v>
@@ -14916,25 +14927,25 @@
         <v>0</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U46" s="11">
         <v>0</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W46" s="11">
         <v>0</v>
       </c>
       <c r="X46" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y46" s="11">
         <v>0</v>
       </c>
       <c r="Z46" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA46" s="11">
         <v>1</v>
@@ -14943,7 +14954,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
@@ -14957,7 +14968,7 @@
         <v>156</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F47" s="11">
         <v>1</v>
@@ -14975,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L47" s="11">
         <v>0</v>
@@ -15002,13 +15013,13 @@
         <v>1</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U47" s="11">
         <v>0</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W47" s="11">
         <v>1</v>
@@ -15029,7 +15040,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>51</v>
       </c>
@@ -15043,7 +15054,7 @@
         <v>156</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F48" s="11">
         <v>1</v>
@@ -15061,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L48" s="11">
         <v>2</v>
@@ -15070,10 +15081,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P48" s="11">
         <v>0</v>
@@ -15088,25 +15099,25 @@
         <v>0</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U48" s="11">
         <v>0</v>
       </c>
       <c r="V48" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W48" s="11">
         <v>0</v>
       </c>
       <c r="X48" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y48" s="11">
         <v>0</v>
       </c>
       <c r="Z48" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA48" s="11">
         <v>1</v>
@@ -15115,7 +15126,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>50</v>
       </c>
@@ -15129,7 +15140,7 @@
         <v>156</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F49" s="11">
         <v>1</v>
@@ -15147,7 +15158,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L49" s="11">
         <v>0</v>
@@ -15180,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W49" s="11">
         <v>1</v>
@@ -15201,7 +15212,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>49</v>
       </c>
@@ -15215,7 +15226,7 @@
         <v>156</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F50" s="11">
         <v>1</v>
@@ -15233,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L50" s="11">
         <v>0</v>
@@ -15260,25 +15271,25 @@
         <v>1</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="U50" s="11">
         <v>1</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="W50" s="11">
         <v>0</v>
       </c>
       <c r="X50" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y50" s="11">
         <v>0</v>
       </c>
       <c r="Z50" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA50" s="11">
         <v>0</v>
@@ -15287,7 +15298,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>48</v>
       </c>
@@ -15301,7 +15312,7 @@
         <v>156</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F51" s="11">
         <v>1</v>
@@ -15319,7 +15330,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L51" s="11">
         <v>1</v>
@@ -15328,10 +15339,10 @@
         <v>0</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P51" s="11">
         <v>0</v>
@@ -15346,25 +15357,25 @@
         <v>1</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U51" s="11">
         <v>0</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W51" s="11">
         <v>0</v>
       </c>
       <c r="X51" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y51" s="11">
         <v>0</v>
       </c>
       <c r="Z51" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA51" s="11">
         <v>0</v>
@@ -15373,7 +15384,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>46</v>
       </c>
@@ -15387,7 +15398,7 @@
         <v>156</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F52" s="11">
         <v>1</v>
@@ -15417,7 +15428,7 @@
         <v>16</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P52" s="11">
         <v>0</v>
@@ -15432,25 +15443,25 @@
         <v>0</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U52" s="11">
         <v>0</v>
       </c>
       <c r="V52" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W52" s="11">
         <v>0</v>
       </c>
       <c r="X52" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y52" s="11">
         <v>0</v>
       </c>
       <c r="Z52" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA52" s="11">
         <v>0</v>
@@ -15459,7 +15470,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>45</v>
       </c>
@@ -15491,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L53" s="11">
         <v>1</v>
@@ -15518,25 +15529,25 @@
         <v>0</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U53" s="11">
         <v>0</v>
       </c>
       <c r="V53" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W53" s="11">
         <v>0</v>
       </c>
       <c r="X53" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y53" s="11">
         <v>0</v>
       </c>
       <c r="Z53" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA53" s="11">
         <v>0</v>
@@ -15559,7 +15570,7 @@
         <v>156</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F54" s="11">
         <v>1</v>
@@ -15577,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L54" s="11">
         <v>0</v>
@@ -15589,49 +15600,49 @@
         <v>16</v>
       </c>
       <c r="O54" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="P54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>0</v>
+      </c>
+      <c r="R54" s="11">
+        <v>1</v>
+      </c>
+      <c r="S54" s="11">
+        <v>1</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="U54" s="11">
+        <v>0</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="W54" s="11">
+        <v>0</v>
+      </c>
+      <c r="X54" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA54" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="P54" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="11">
-        <v>0</v>
-      </c>
-      <c r="R54" s="11">
-        <v>1</v>
-      </c>
-      <c r="S54" s="11">
-        <v>1</v>
-      </c>
-      <c r="T54" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="U54" s="11">
-        <v>0</v>
-      </c>
-      <c r="V54" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="W54" s="11">
-        <v>0</v>
-      </c>
-      <c r="X54" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y54" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA54" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>43</v>
       </c>
@@ -15645,7 +15656,7 @@
         <v>156</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F55" s="11">
         <v>1</v>
@@ -15663,7 +15674,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L55" s="11">
         <v>1</v>
@@ -15672,10 +15683,10 @@
         <v>0</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O55" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P55" s="11">
         <v>0</v>
@@ -15690,25 +15701,25 @@
         <v>0</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U55" s="11">
         <v>1</v>
       </c>
       <c r="V55" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W55" s="11">
         <v>0</v>
       </c>
       <c r="X55" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y55" s="11">
         <v>0</v>
       </c>
       <c r="Z55" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA55" s="11">
         <v>0</v>
@@ -15717,9 +15728,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B56" s="11">
         <v>7</v>
@@ -15731,7 +15742,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F56" s="11">
         <v>0</v>
@@ -15758,7 +15769,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O56" s="11" t="s">
         <v>105</v>
@@ -15767,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R56" s="11">
         <v>0</v>
@@ -15776,25 +15787,25 @@
         <v>0</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U56" s="11">
         <v>0</v>
       </c>
       <c r="V56" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W56" s="11">
         <v>0</v>
       </c>
       <c r="X56" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y56" s="11">
         <v>0</v>
       </c>
       <c r="Z56" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA56" s="11">
         <v>1</v>
@@ -15803,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>41</v>
       </c>
@@ -15817,7 +15828,7 @@
         <v>156</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F57" s="11">
         <v>0</v>
@@ -15835,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L57" s="11">
         <v>0</v>
@@ -15844,7 +15855,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O57" s="11" t="s">
         <v>205</v>
@@ -15862,34 +15873,34 @@
         <v>0</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U57" s="11">
         <v>0</v>
       </c>
       <c r="V57" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W57" s="11">
         <v>0</v>
       </c>
       <c r="X57" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y57" s="11">
         <v>0</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA57" s="11">
         <v>1</v>
       </c>
       <c r="AB57" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>40</v>
       </c>
@@ -15903,7 +15914,7 @@
         <v>156</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F58" s="11">
         <v>1</v>
@@ -15930,52 +15941,52 @@
         <v>0</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O58" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="P58" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>0</v>
+      </c>
+      <c r="R58" s="11">
+        <v>1</v>
+      </c>
+      <c r="S58" s="11">
+        <v>1</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="U58" s="11">
+        <v>0</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="W58" s="11">
+        <v>0</v>
+      </c>
+      <c r="X58" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y58" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA58" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="P58" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="11">
-        <v>0</v>
-      </c>
-      <c r="R58" s="11">
-        <v>1</v>
-      </c>
-      <c r="S58" s="11">
-        <v>1</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="U58" s="11">
-        <v>0</v>
-      </c>
-      <c r="V58" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="W58" s="11">
-        <v>0</v>
-      </c>
-      <c r="X58" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y58" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA58" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>39</v>
       </c>
@@ -15989,7 +16000,7 @@
         <v>156</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F59" s="11">
         <v>1</v>
@@ -16034,34 +16045,34 @@
         <v>0</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U59" s="11">
         <v>0</v>
       </c>
       <c r="V59" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W59" s="11">
         <v>0</v>
       </c>
       <c r="X59" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y59" s="11">
         <v>0</v>
       </c>
       <c r="Z59" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA59" s="11">
         <v>1</v>
       </c>
       <c r="AB59" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>38</v>
       </c>
@@ -16075,7 +16086,7 @@
         <v>156</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F60" s="11">
         <v>1</v>
@@ -16093,7 +16104,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L60" s="11">
         <v>0</v>
@@ -16120,25 +16131,25 @@
         <v>1</v>
       </c>
       <c r="T60" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="U60" s="11">
+        <v>0</v>
+      </c>
+      <c r="V60" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="W60" s="11">
+        <v>0</v>
+      </c>
+      <c r="X60" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y60" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="U60" s="11">
-        <v>0</v>
-      </c>
-      <c r="V60" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="W60" s="11">
-        <v>0</v>
-      </c>
-      <c r="X60" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y60" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z60" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="AA60" s="11">
         <v>0</v>
@@ -16147,7 +16158,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>37</v>
       </c>
@@ -16161,7 +16172,7 @@
         <v>156</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F61" s="11">
         <v>0</v>
@@ -16179,7 +16190,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L61" s="11">
         <v>2</v>
@@ -16191,40 +16202,40 @@
         <v>171</v>
       </c>
       <c r="O61" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="P61" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>0</v>
+      </c>
+      <c r="R61" s="11">
+        <v>1</v>
+      </c>
+      <c r="S61" s="11">
+        <v>0</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="U61" s="11">
+        <v>1</v>
+      </c>
+      <c r="V61" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="P61" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="11">
-        <v>0</v>
-      </c>
-      <c r="R61" s="11">
-        <v>1</v>
-      </c>
-      <c r="S61" s="11">
-        <v>0</v>
-      </c>
-      <c r="T61" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="U61" s="11">
-        <v>1</v>
-      </c>
-      <c r="V61" s="11" t="s">
-        <v>317</v>
-      </c>
       <c r="W61" s="11">
         <v>0</v>
       </c>
       <c r="X61" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y61" s="11">
         <v>0</v>
       </c>
       <c r="Z61" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA61" s="11">
         <v>0</v>
@@ -16247,7 +16258,7 @@
         <v>156</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F62" s="11">
         <v>1</v>
@@ -16265,7 +16276,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L62" s="11">
         <v>2</v>
@@ -16274,10 +16285,10 @@
         <v>1</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P62" s="11">
         <v>0</v>
@@ -16292,25 +16303,25 @@
         <v>0</v>
       </c>
       <c r="T62" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U62" s="11">
         <v>0</v>
       </c>
       <c r="V62" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W62" s="11">
         <v>0</v>
       </c>
       <c r="X62" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y62" s="11">
         <v>0</v>
       </c>
       <c r="Z62" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA62" s="11">
         <v>0</v>
@@ -16319,8 +16330,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
+    <row r="63" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B63" s="11">
@@ -16333,7 +16344,7 @@
         <v>156</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F63" s="11">
         <v>1</v>
@@ -16351,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L63" s="11">
         <v>2</v>
@@ -16360,7 +16371,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O63" s="11" t="s">
         <v>98</v>
@@ -16378,25 +16389,25 @@
         <v>0</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U63" s="11">
         <v>0</v>
       </c>
       <c r="V63" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W63" s="11">
         <v>0</v>
       </c>
       <c r="X63" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y63" s="11">
         <v>0</v>
       </c>
       <c r="Z63" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA63" s="11">
         <v>1</v>
@@ -16405,7 +16416,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>42</v>
       </c>
@@ -16419,7 +16430,7 @@
         <v>156</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F64" s="11">
         <v>0</v>
@@ -16446,10 +16457,10 @@
         <v>1</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O64" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P64" s="11">
         <v>0</v>
@@ -16464,25 +16475,25 @@
         <v>1</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U64" s="11">
         <v>0</v>
       </c>
       <c r="V64" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W64" s="11">
         <v>0</v>
       </c>
       <c r="X64" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y64" s="11">
         <v>0</v>
       </c>
       <c r="Z64" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA64" s="11">
         <v>0</v>
@@ -16491,7 +16502,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>34</v>
       </c>
@@ -16505,7 +16516,7 @@
         <v>156</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F65" s="11">
         <v>1</v>
@@ -16523,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L65" s="11">
         <v>1</v>
@@ -16550,25 +16561,25 @@
         <v>0</v>
       </c>
       <c r="T65" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U65" s="11">
         <v>0</v>
       </c>
       <c r="V65" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W65" s="11">
         <v>0</v>
       </c>
       <c r="X65" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y65" s="11">
         <v>0</v>
       </c>
       <c r="Z65" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA65" s="11">
         <v>0</v>
@@ -16577,8 +16588,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
+    <row r="66" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B66" s="11">
@@ -16591,7 +16602,7 @@
         <v>156</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F66" s="11">
         <v>1</v>
@@ -16609,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L66" s="11">
         <v>7</v>
@@ -16636,25 +16647,25 @@
         <v>0</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U66" s="11">
         <v>0</v>
       </c>
       <c r="V66" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W66" s="11">
         <v>0</v>
       </c>
       <c r="X66" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y66" s="11">
         <v>0</v>
       </c>
       <c r="Z66" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA66" s="11">
         <v>0</v>
@@ -16663,9 +16674,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B67" s="11">
         <v>58</v>
@@ -16677,7 +16688,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F67" s="11">
         <v>0</v>
@@ -16722,25 +16733,25 @@
         <v>0</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U67" s="11">
         <v>0</v>
       </c>
       <c r="V67" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W67" s="11">
         <v>0</v>
       </c>
       <c r="X67" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y67" s="11">
         <v>0</v>
       </c>
       <c r="Z67" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA67" s="11">
         <v>0</v>
@@ -16749,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>32</v>
       </c>
@@ -16763,7 +16774,7 @@
         <v>156</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F68" s="11">
         <v>1</v>
@@ -16781,7 +16792,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L68" s="11">
         <v>2</v>
@@ -16790,7 +16801,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O68" s="11" t="s">
         <v>101</v>
@@ -16808,25 +16819,25 @@
         <v>0</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U68" s="11">
         <v>0</v>
       </c>
       <c r="V68" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W68" s="11">
         <v>0</v>
       </c>
       <c r="X68" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y68" s="11">
         <v>0</v>
       </c>
       <c r="Z68" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA68" s="11">
         <v>0</v>
@@ -16835,7 +16846,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>31</v>
       </c>
@@ -16849,7 +16860,7 @@
         <v>156</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F69" s="11">
         <v>1</v>
@@ -16867,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L69" s="11">
         <v>1</v>
@@ -16879,7 +16890,7 @@
         <v>16</v>
       </c>
       <c r="O69" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P69" s="11">
         <v>0</v>
@@ -16894,25 +16905,25 @@
         <v>1</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U69" s="11">
         <v>0</v>
       </c>
       <c r="V69" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W69" s="11">
         <v>0</v>
       </c>
       <c r="X69" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y69" s="11">
         <v>0</v>
       </c>
       <c r="Z69" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA69" s="11">
         <v>0</v>
@@ -16921,9 +16932,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B70" s="11">
         <v>7</v>
@@ -16935,7 +16946,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F70" s="11">
         <v>1</v>
@@ -16962,10 +16973,10 @@
         <v>1</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O70" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P70" s="11">
         <v>0</v>
@@ -16980,25 +16991,25 @@
         <v>0</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U70" s="11">
         <v>0</v>
       </c>
       <c r="V70" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W70" s="11">
         <v>0</v>
       </c>
       <c r="X70" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y70" s="11">
         <v>0</v>
       </c>
       <c r="Z70" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA70" s="11">
         <v>0</v>
@@ -17007,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>30</v>
       </c>
@@ -17021,7 +17032,7 @@
         <v>156</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F71" s="11">
         <v>1</v>
@@ -17051,7 +17062,7 @@
         <v>16</v>
       </c>
       <c r="O71" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P71" s="11">
         <v>0</v>
@@ -17066,25 +17077,25 @@
         <v>1</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U71" s="11">
         <v>0</v>
       </c>
       <c r="V71" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W71" s="11">
         <v>0</v>
       </c>
       <c r="X71" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y71" s="11">
         <v>0</v>
       </c>
       <c r="Z71" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA71" s="11">
         <v>0</v>
@@ -17093,7 +17104,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>29</v>
       </c>
@@ -17107,7 +17118,7 @@
         <v>156</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F72" s="11">
         <v>0</v>
@@ -17125,7 +17136,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L72" s="11">
         <v>4</v>
@@ -17134,10 +17145,10 @@
         <v>0</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P72" s="11">
         <v>0</v>
@@ -17152,25 +17163,25 @@
         <v>1</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U72" s="11">
         <v>0</v>
       </c>
       <c r="V72" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W72" s="11">
         <v>0</v>
       </c>
       <c r="X72" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y72" s="11">
         <v>0</v>
       </c>
       <c r="Z72" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA72" s="11">
         <v>0</v>
@@ -17193,7 +17204,7 @@
         <v>156</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F73" s="11">
         <v>1</v>
@@ -17211,7 +17222,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L73" s="11">
         <v>3</v>
@@ -17220,10 +17231,10 @@
         <v>0</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O73" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P73" s="11">
         <v>0</v>
@@ -17238,34 +17249,34 @@
         <v>0</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U73" s="11">
         <v>0</v>
       </c>
       <c r="V73" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W73" s="11">
         <v>0</v>
       </c>
       <c r="X73" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y73" s="11">
         <v>0</v>
       </c>
       <c r="Z73" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA73" s="11">
         <v>0</v>
       </c>
       <c r="AB73" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>27</v>
       </c>
@@ -17279,7 +17290,7 @@
         <v>156</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F74" s="11">
         <v>1</v>
@@ -17297,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L74" s="11">
         <v>0</v>
@@ -17324,25 +17335,25 @@
         <v>0</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U74" s="11">
         <v>0</v>
       </c>
       <c r="V74" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W74" s="11">
         <v>0</v>
       </c>
       <c r="X74" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y74" s="11">
         <v>0</v>
       </c>
       <c r="Z74" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA74" s="11">
         <v>0</v>
@@ -17351,7 +17362,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>26</v>
       </c>
@@ -17365,7 +17376,7 @@
         <v>156</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F75" s="11">
         <v>1</v>
@@ -17383,7 +17394,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L75" s="11">
         <v>0</v>
@@ -17392,10 +17403,10 @@
         <v>0</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P75" s="11">
         <v>0</v>
@@ -17410,34 +17421,34 @@
         <v>0</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U75" s="11">
         <v>0</v>
       </c>
       <c r="V75" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W75" s="11">
         <v>0</v>
       </c>
       <c r="X75" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y75" s="11">
         <v>0</v>
       </c>
       <c r="Z75" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA75" s="11">
         <v>1</v>
       </c>
       <c r="AB75" s="11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>25</v>
       </c>
@@ -17451,7 +17462,7 @@
         <v>156</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F76" s="11">
         <v>0</v>
@@ -17469,7 +17480,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L76" s="11">
         <v>2</v>
@@ -17478,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O76" s="11" t="s">
         <v>101</v>
@@ -17496,25 +17507,25 @@
         <v>0</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U76" s="11">
         <v>0</v>
       </c>
       <c r="V76" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W76" s="11">
         <v>0</v>
       </c>
       <c r="X76" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y76" s="11">
         <v>0</v>
       </c>
       <c r="Z76" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA76" s="11">
         <v>0</v>
@@ -17523,9 +17534,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B77" s="11">
         <v>63</v>
@@ -17537,7 +17548,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F77" s="11">
         <v>0</v>
@@ -17567,13 +17578,13 @@
         <v>171</v>
       </c>
       <c r="O77" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P77" s="11">
         <v>1</v>
       </c>
       <c r="Q77" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R77" s="11">
         <v>0</v>
@@ -17582,25 +17593,25 @@
         <v>0</v>
       </c>
       <c r="T77" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U77" s="11">
         <v>0</v>
       </c>
       <c r="V77" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W77" s="11">
         <v>0</v>
       </c>
       <c r="X77" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y77" s="11">
         <v>0</v>
       </c>
       <c r="Z77" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA77" s="11">
         <v>0</v>
@@ -17609,7 +17620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>24</v>
       </c>
@@ -17620,10 +17631,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F78" s="11">
         <v>1</v>
@@ -17650,7 +17661,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O78" s="11" t="s">
         <v>154</v>
@@ -17668,25 +17679,25 @@
         <v>1</v>
       </c>
       <c r="T78" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U78" s="11">
         <v>0</v>
       </c>
       <c r="V78" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W78" s="11">
         <v>0</v>
       </c>
       <c r="X78" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y78" s="11">
         <v>0</v>
       </c>
       <c r="Z78" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA78" s="11">
         <v>0</v>
@@ -17695,7 +17706,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>21</v>
       </c>
@@ -17709,7 +17720,7 @@
         <v>156</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F79" s="11">
         <v>1</v>
@@ -17727,7 +17738,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L79" s="11">
         <v>1</v>
@@ -17736,43 +17747,43 @@
         <v>0</v>
       </c>
       <c r="N79" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="O79" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="P79" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="11">
+        <v>0</v>
+      </c>
+      <c r="R79" s="11">
+        <v>1</v>
+      </c>
+      <c r="S79" s="11">
+        <v>0</v>
+      </c>
+      <c r="T79" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="U79" s="11">
+        <v>1</v>
+      </c>
+      <c r="V79" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="O79" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="P79" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="11">
-        <v>0</v>
-      </c>
-      <c r="R79" s="11">
-        <v>1</v>
-      </c>
-      <c r="S79" s="11">
-        <v>0</v>
-      </c>
-      <c r="T79" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="U79" s="11">
-        <v>1</v>
-      </c>
-      <c r="V79" s="11" t="s">
-        <v>429</v>
-      </c>
       <c r="W79" s="11">
         <v>0</v>
       </c>
       <c r="X79" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y79" s="11">
         <v>0</v>
       </c>
       <c r="Z79" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA79" s="11">
         <v>0</v>
@@ -17781,7 +17792,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>20</v>
       </c>
@@ -17795,7 +17806,7 @@
         <v>156</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F80" s="11">
         <v>1</v>
@@ -17825,7 +17836,7 @@
         <v>16</v>
       </c>
       <c r="O80" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P80" s="11">
         <v>0</v>
@@ -17840,25 +17851,25 @@
         <v>1</v>
       </c>
       <c r="T80" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U80" s="11">
         <v>1</v>
       </c>
       <c r="V80" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W80" s="11">
         <v>0</v>
       </c>
       <c r="X80" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y80" s="11">
         <v>0</v>
       </c>
       <c r="Z80" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA80" s="11">
         <v>1</v>
@@ -17867,7 +17878,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>23</v>
       </c>
@@ -17881,7 +17892,7 @@
         <v>156</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F81" s="11">
         <v>0</v>
@@ -17926,34 +17937,34 @@
         <v>0</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U81" s="11">
         <v>0</v>
       </c>
       <c r="V81" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W81" s="11">
         <v>0</v>
       </c>
       <c r="X81" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y81" s="11">
         <v>0</v>
       </c>
       <c r="Z81" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA81" s="11">
         <v>1</v>
       </c>
       <c r="AB81" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>19</v>
       </c>
@@ -17967,7 +17978,7 @@
         <v>156</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F82" s="11">
         <v>1</v>
@@ -18012,25 +18023,25 @@
         <v>0</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U82" s="11">
         <v>1</v>
       </c>
       <c r="V82" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W82" s="11">
         <v>0</v>
       </c>
       <c r="X82" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y82" s="11">
         <v>0</v>
       </c>
       <c r="Z82" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA82" s="11">
         <v>0</v>
@@ -18039,7 +18050,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>18</v>
       </c>
@@ -18053,7 +18064,7 @@
         <v>156</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F83" s="11">
         <v>1</v>
@@ -18071,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L83" s="11">
         <v>2</v>
@@ -18098,25 +18109,25 @@
         <v>0</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U83" s="11">
         <v>0</v>
       </c>
       <c r="V83" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W83" s="11">
         <v>0</v>
       </c>
       <c r="X83" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y83" s="11">
         <v>0</v>
       </c>
       <c r="Z83" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA83" s="11">
         <v>1</v>
@@ -18125,9 +18136,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B84" s="11">
         <v>25</v>
@@ -18139,7 +18150,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F84" s="11">
         <v>0</v>
@@ -18166,7 +18177,7 @@
         <v>1</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O84" s="11" t="s">
         <v>172</v>
@@ -18184,25 +18195,25 @@
         <v>0</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U84" s="11">
         <v>0</v>
       </c>
       <c r="V84" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W84" s="11">
         <v>0</v>
       </c>
       <c r="X84" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y84" s="11">
         <v>0</v>
       </c>
       <c r="Z84" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA84" s="11">
         <v>1</v>
@@ -18211,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>22</v>
       </c>
@@ -18225,7 +18236,7 @@
         <v>156</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F85" s="11">
         <v>0</v>
@@ -18243,7 +18254,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L85" s="11">
         <v>2</v>
@@ -18270,25 +18281,25 @@
         <v>0</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U85" s="11">
         <v>0</v>
       </c>
       <c r="V85" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W85" s="11">
         <v>0</v>
       </c>
       <c r="X85" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y85" s="11">
         <v>0</v>
       </c>
       <c r="Z85" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA85" s="11">
         <v>0</v>
@@ -18297,7 +18308,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>17</v>
       </c>
@@ -18311,7 +18322,7 @@
         <v>156</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F86" s="11">
         <v>1</v>
@@ -18329,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L86" s="11">
         <v>0</v>
@@ -18356,25 +18367,25 @@
         <v>1</v>
       </c>
       <c r="T86" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U86" s="11">
         <v>0</v>
       </c>
       <c r="V86" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W86" s="11">
         <v>0</v>
       </c>
       <c r="X86" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y86" s="11">
         <v>0</v>
       </c>
       <c r="Z86" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA86" s="11">
         <v>0</v>
@@ -18383,8 +18394,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="s">
+    <row r="87" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="11">
@@ -18397,7 +18408,7 @@
         <v>156</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F87" s="11">
         <v>0</v>
@@ -18415,7 +18426,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L87" s="11">
         <v>0</v>
@@ -18442,25 +18453,25 @@
         <v>0</v>
       </c>
       <c r="T87" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U87" s="11">
         <v>0</v>
       </c>
       <c r="V87" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W87" s="11">
         <v>0</v>
       </c>
       <c r="X87" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y87" s="11">
         <v>0</v>
       </c>
       <c r="Z87" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA87" s="11">
         <v>0</v>
@@ -18469,7 +18480,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>13</v>
       </c>
@@ -18483,7 +18494,7 @@
         <v>156</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F88" s="11">
         <v>1</v>
@@ -18510,7 +18521,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O88" s="11" t="s">
         <v>101</v>
@@ -18528,25 +18539,25 @@
         <v>0</v>
       </c>
       <c r="T88" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U88" s="11">
         <v>0</v>
       </c>
       <c r="V88" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W88" s="11">
         <v>0</v>
       </c>
       <c r="X88" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y88" s="11">
         <v>0</v>
       </c>
       <c r="Z88" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA88" s="11">
         <v>0</v>
@@ -18555,7 +18566,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>12</v>
       </c>
@@ -18569,7 +18580,7 @@
         <v>156</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F89" s="11">
         <v>1</v>
@@ -18596,7 +18607,7 @@
         <v>1</v>
       </c>
       <c r="N89" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O89" s="11" t="s">
         <v>105</v>
@@ -18614,25 +18625,25 @@
         <v>0</v>
       </c>
       <c r="T89" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U89" s="11">
         <v>1</v>
       </c>
       <c r="V89" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W89" s="11">
         <v>0</v>
       </c>
       <c r="X89" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y89" s="11">
         <v>0</v>
       </c>
       <c r="Z89" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA89" s="11">
         <v>0</v>
@@ -18641,7 +18652,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>11</v>
       </c>
@@ -18655,7 +18666,7 @@
         <v>156</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F90" s="11">
         <v>1</v>
@@ -18682,10 +18693,10 @@
         <v>0</v>
       </c>
       <c r="N90" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P90" s="11">
         <v>0</v>
@@ -18700,25 +18711,25 @@
         <v>0</v>
       </c>
       <c r="T90" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U90" s="11">
         <v>0</v>
       </c>
       <c r="V90" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W90" s="11">
         <v>0</v>
       </c>
       <c r="X90" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y90" s="11">
         <v>0</v>
       </c>
       <c r="Z90" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA90" s="11">
         <v>0</v>
@@ -18727,7 +18738,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>10</v>
       </c>
@@ -18741,7 +18752,7 @@
         <v>156</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F91" s="11">
         <v>1</v>
@@ -18759,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L91" s="11">
         <v>0</v>
@@ -18771,7 +18782,7 @@
         <v>90</v>
       </c>
       <c r="O91" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P91" s="11">
         <v>0</v>
@@ -18786,25 +18797,25 @@
         <v>1</v>
       </c>
       <c r="T91" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U91" s="11">
         <v>0</v>
       </c>
       <c r="V91" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W91" s="11">
         <v>0</v>
       </c>
       <c r="X91" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y91" s="11">
         <v>0</v>
       </c>
       <c r="Z91" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA91" s="11">
         <v>0</v>
@@ -18813,7 +18824,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>9</v>
       </c>
@@ -18827,7 +18838,7 @@
         <v>156</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F92" s="11">
         <v>1</v>
@@ -18854,7 +18865,7 @@
         <v>0</v>
       </c>
       <c r="N92" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O92" s="11" t="s">
         <v>95</v>
@@ -18872,25 +18883,25 @@
         <v>1</v>
       </c>
       <c r="T92" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U92" s="11">
         <v>0</v>
       </c>
       <c r="V92" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W92" s="11">
         <v>0</v>
       </c>
       <c r="X92" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y92" s="11">
         <v>0</v>
       </c>
       <c r="Z92" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA92" s="11">
         <v>0</v>
@@ -18899,7 +18910,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>8</v>
       </c>
@@ -18913,7 +18924,7 @@
         <v>156</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F93" s="11">
         <v>1</v>
@@ -18940,10 +18951,10 @@
         <v>0</v>
       </c>
       <c r="N93" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="O93" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="O93" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="P93" s="11">
         <v>0</v>
@@ -18958,25 +18969,25 @@
         <v>0</v>
       </c>
       <c r="T93" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U93" s="11">
         <v>0</v>
       </c>
       <c r="V93" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W93" s="11">
         <v>0</v>
       </c>
       <c r="X93" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y93" s="11">
         <v>0</v>
       </c>
       <c r="Z93" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA93" s="11">
         <v>0</v>
@@ -18985,7 +18996,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>7</v>
       </c>
@@ -18999,7 +19010,7 @@
         <v>156</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F94" s="11">
         <v>0</v>
@@ -19026,10 +19037,10 @@
         <v>0</v>
       </c>
       <c r="N94" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O94" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P94" s="11">
         <v>0</v>
@@ -19044,25 +19055,25 @@
         <v>0</v>
       </c>
       <c r="T94" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U94" s="11">
         <v>0</v>
       </c>
       <c r="V94" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W94" s="11">
         <v>0</v>
       </c>
       <c r="X94" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y94" s="11">
         <v>0</v>
       </c>
       <c r="Z94" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA94" s="11">
         <v>0</v>
@@ -19071,9 +19082,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B95" s="11">
         <v>59</v>
@@ -19085,7 +19096,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F95" s="11">
         <v>1</v>
@@ -19112,7 +19123,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O95" s="11" t="s">
         <v>105</v>
@@ -19130,25 +19141,25 @@
         <v>0</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U95" s="11">
         <v>1</v>
       </c>
       <c r="V95" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W95" s="11">
         <v>0</v>
       </c>
       <c r="X95" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y95" s="11">
         <v>0</v>
       </c>
       <c r="Z95" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA95" s="11">
         <v>0</v>
@@ -19157,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>6</v>
       </c>
@@ -19171,7 +19182,7 @@
         <v>156</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F96" s="11">
         <v>1</v>
@@ -19216,25 +19227,25 @@
         <v>1</v>
       </c>
       <c r="T96" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U96" s="11">
         <v>1</v>
       </c>
       <c r="V96" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W96" s="11">
         <v>0</v>
       </c>
       <c r="X96" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y96" s="11">
         <v>0</v>
       </c>
       <c r="Z96" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA96" s="11">
         <v>1</v>
@@ -19243,7 +19254,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>5</v>
       </c>
@@ -19257,7 +19268,7 @@
         <v>156</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F97" s="11">
         <v>1</v>
@@ -19275,7 +19286,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L97" s="11">
         <v>0</v>
@@ -19302,25 +19313,25 @@
         <v>0</v>
       </c>
       <c r="T97" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U97" s="11">
         <v>1</v>
       </c>
       <c r="V97" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W97" s="11">
         <v>0</v>
       </c>
       <c r="X97" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y97" s="11">
         <v>0</v>
       </c>
       <c r="Z97" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA97" s="11">
         <v>0</v>
@@ -19329,7 +19340,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>4</v>
       </c>
@@ -19343,7 +19354,7 @@
         <v>156</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F98" s="11">
         <v>1</v>
@@ -19361,7 +19372,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L98" s="11">
         <v>2</v>
@@ -19370,10 +19381,10 @@
         <v>0</v>
       </c>
       <c r="N98" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O98" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P98" s="11">
         <v>0</v>
@@ -19388,25 +19399,25 @@
         <v>0</v>
       </c>
       <c r="T98" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U98" s="11">
         <v>0</v>
       </c>
       <c r="V98" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W98" s="11">
         <v>0</v>
       </c>
       <c r="X98" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y98" s="11">
         <v>0</v>
       </c>
       <c r="Z98" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA98" s="11">
         <v>0</v>
@@ -19415,7 +19426,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>3</v>
       </c>
@@ -19429,7 +19440,7 @@
         <v>156</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F99" s="11">
         <v>1</v>
@@ -19447,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L99" s="11">
         <v>2</v>
@@ -19456,7 +19467,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O99" s="11" t="s">
         <v>92</v>
@@ -19474,25 +19485,25 @@
         <v>0</v>
       </c>
       <c r="T99" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U99" s="11">
         <v>0</v>
       </c>
       <c r="V99" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W99" s="11">
         <v>0</v>
       </c>
       <c r="X99" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y99" s="11">
         <v>0</v>
       </c>
       <c r="Z99" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA99" s="11">
         <v>0</v>
@@ -19501,7 +19512,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>2</v>
       </c>
@@ -19515,7 +19526,7 @@
         <v>156</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F100" s="11">
         <v>1</v>
@@ -19542,10 +19553,10 @@
         <v>0</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O100" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P100" s="11">
         <v>0</v>
@@ -19560,25 +19571,25 @@
         <v>0</v>
       </c>
       <c r="T100" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U100" s="11">
         <v>0</v>
       </c>
       <c r="V100" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W100" s="11">
         <v>0</v>
       </c>
       <c r="X100" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y100" s="11">
         <v>0</v>
       </c>
       <c r="Z100" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA100" s="11">
         <v>0</v>
@@ -19587,7 +19598,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>1</v>
       </c>
@@ -19601,7 +19612,7 @@
         <v>156</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F101" s="11">
         <v>1</v>
@@ -19619,7 +19630,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L101" s="11">
         <v>1</v>
@@ -19628,7 +19639,7 @@
         <v>2</v>
       </c>
       <c r="N101" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O101" s="11" t="s">
         <v>240</v>
@@ -19646,25 +19657,25 @@
         <v>0</v>
       </c>
       <c r="T101" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U101" s="11">
         <v>0</v>
       </c>
       <c r="V101" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W101" s="11">
         <v>0</v>
       </c>
       <c r="X101" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y101" s="11">
         <v>0</v>
       </c>
       <c r="Z101" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA101" s="11">
         <v>0</v>
@@ -19686,8 +19697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB5EE03-A5C3-AA45-A65B-DFDFA238E0A1}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19711,16 +19722,16 @@
         <v>247</v>
       </c>
       <c r="D1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="356" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>116</v>
       </c>
@@ -19731,10 +19742,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -19749,7 +19760,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>250</v>
@@ -19767,11 +19778,11 @@
         <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="372" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>104</v>
       </c>
@@ -19782,10 +19793,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="340" x14ac:dyDescent="0.2">
@@ -19799,16 +19810,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="388" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>100</v>
       </c>
@@ -19819,10 +19830,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -19836,7 +19847,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -19851,10 +19862,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="221" x14ac:dyDescent="0.2">
@@ -19868,7 +19879,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -19883,10 +19894,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="119" x14ac:dyDescent="0.2">
@@ -19900,10 +19911,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="170" x14ac:dyDescent="0.2">
@@ -19917,7 +19928,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -19932,13 +19943,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -19952,15 +19963,15 @@
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B16" s="12">
         <v>71</v>
@@ -19969,15 +19980,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B17" s="13">
         <v>11</v>
@@ -19986,15 +19997,15 @@
         <v>8</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="340" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B18" s="12">
         <v>33</v>
@@ -20003,10 +20014,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="170" x14ac:dyDescent="0.2">
@@ -20020,11 +20031,11 @@
         <v>7</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>77</v>
       </c>
@@ -20035,13 +20046,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>75</v>
       </c>
@@ -20052,7 +20063,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -20067,10 +20078,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -20085,13 +20096,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -20105,13 +20116,13 @@
         <v>7</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>72</v>
       </c>
@@ -20122,11 +20133,11 @@
         <v>5</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="340" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>71</v>
       </c>
@@ -20137,13 +20148,13 @@
         <v>10</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="255" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>68</v>
       </c>
@@ -20154,7 +20165,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -20169,13 +20180,13 @@
         <v>8</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -20189,16 +20200,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>65</v>
       </c>
@@ -20209,13 +20220,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>64</v>
       </c>
@@ -20226,13 +20237,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="356" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>63</v>
       </c>
@@ -20243,16 +20254,16 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>62</v>
       </c>
@@ -20263,11 +20274,11 @@
         <v>6</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="238" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>61</v>
       </c>
@@ -20278,13 +20289,13 @@
         <v>4</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -20298,13 +20309,13 @@
         <v>10</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -20318,14 +20329,14 @@
         <v>5</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>69</v>
       </c>
@@ -20336,7 +20347,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -20351,13 +20362,13 @@
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="356" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B39" s="13">
         <v>38</v>
@@ -20366,11 +20377,11 @@
         <v>5</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>58</v>
       </c>
@@ -20381,10 +20392,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="204" x14ac:dyDescent="0.2">
@@ -20398,15 +20409,15 @@
         <v>2</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="340" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B42" s="12">
         <v>56</v>
@@ -20415,7 +20426,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -20430,13 +20441,13 @@
         <v>9</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -20450,10 +20461,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -20470,10 +20481,10 @@
         <v>272</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>53</v>
       </c>
@@ -20484,13 +20495,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -20504,13 +20515,13 @@
         <v>5</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>51</v>
       </c>
@@ -20521,13 +20532,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="238" x14ac:dyDescent="0.2">
@@ -20541,7 +20552,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F49" s="2"/>
     </row>
@@ -20556,11 +20567,11 @@
         <v>5</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>48</v>
       </c>
@@ -20571,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F51" s="2"/>
     </row>
@@ -20586,10 +20597,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="306" x14ac:dyDescent="0.2">
@@ -20607,7 +20618,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>44</v>
       </c>
@@ -20618,13 +20629,13 @@
         <v>2</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -20637,16 +20648,16 @@
       <c r="C55" s="13">
         <v>2</v>
       </c>
-      <c r="D55" s="22" t="s">
-        <v>712</v>
+      <c r="D55" s="13" t="s">
+        <v>711</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B56" s="12">
         <v>7</v>
@@ -20655,13 +20666,13 @@
         <v>7</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>41</v>
       </c>
@@ -20672,13 +20683,13 @@
         <v>1</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="356" x14ac:dyDescent="0.2">
@@ -20692,16 +20703,16 @@
         <v>6</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="289" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>39</v>
       </c>
@@ -20712,13 +20723,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="221" x14ac:dyDescent="0.2">
@@ -20732,7 +20743,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -20747,13 +20758,13 @@
         <v>6</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="255" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="388" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>36</v>
       </c>
@@ -20764,10 +20775,10 @@
         <v>1</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="221" x14ac:dyDescent="0.2">
@@ -20781,10 +20792,10 @@
         <v>4</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -20798,11 +20809,11 @@
         <v>5</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="323" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>34</v>
       </c>
@@ -20813,10 +20824,10 @@
         <v>10</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="289" x14ac:dyDescent="0.2">
@@ -20830,15 +20841,15 @@
         <v>10</v>
       </c>
       <c r="D66" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B67" s="13">
         <v>58</v>
@@ -20847,11 +20858,11 @@
         <v>9</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>32</v>
       </c>
@@ -20862,13 +20873,13 @@
         <v>8</v>
       </c>
       <c r="D68" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>31</v>
       </c>
@@ -20879,15 +20890,15 @@
         <v>5</v>
       </c>
       <c r="D69" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="306" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B70" s="12">
         <v>7</v>
@@ -20896,10 +20907,10 @@
         <v>5</v>
       </c>
       <c r="D70" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="372" x14ac:dyDescent="0.2">
@@ -20913,11 +20924,11 @@
         <v>9</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="388" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>29</v>
       </c>
@@ -20928,10 +20939,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -20945,13 +20956,13 @@
         <v>8</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>27</v>
       </c>
@@ -20962,7 +20973,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -20977,13 +20988,13 @@
         <v>8</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -20997,15 +21008,15 @@
         <v>5</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B77" s="13">
         <v>63</v>
@@ -21014,7 +21025,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F77" s="2"/>
     </row>
@@ -21029,7 +21040,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -21044,10 +21055,10 @@
         <v>7</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="356" x14ac:dyDescent="0.2">
@@ -21061,10 +21072,10 @@
         <v>7</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="306" x14ac:dyDescent="0.2">
@@ -21078,13 +21089,13 @@
         <v>5</v>
       </c>
       <c r="D81" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="372" x14ac:dyDescent="0.2">
@@ -21098,11 +21109,11 @@
         <v>4</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" ht="289" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="388" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>18</v>
       </c>
@@ -21113,15 +21124,15 @@
         <v>8</v>
       </c>
       <c r="D83" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B84" s="12">
         <v>25</v>
@@ -21130,13 +21141,13 @@
         <v>7</v>
       </c>
       <c r="D84" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>22</v>
       </c>
@@ -21147,13 +21158,13 @@
         <v>1</v>
       </c>
       <c r="D85" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="255" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:6" ht="356" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>17</v>
       </c>
@@ -21164,13 +21175,13 @@
         <v>10</v>
       </c>
       <c r="D86" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
         <v>14</v>
       </c>
@@ -21181,13 +21192,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>13</v>
       </c>
@@ -21198,11 +21209,11 @@
         <v>10</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
         <v>12</v>
       </c>
@@ -21213,11 +21224,11 @@
         <v>7</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>11</v>
       </c>
@@ -21228,13 +21239,13 @@
         <v>5</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
         <v>10</v>
       </c>
@@ -21245,13 +21256,13 @@
         <v>6</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>9</v>
       </c>
@@ -21262,11 +21273,11 @@
         <v>6</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>8</v>
       </c>
@@ -21277,13 +21288,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>7</v>
       </c>
@@ -21294,13 +21305,13 @@
         <v>10</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B95" s="13">
         <v>59</v>
@@ -21309,13 +21320,13 @@
         <v>6</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>6</v>
       </c>
@@ -21326,11 +21337,11 @@
         <v>2</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
         <v>5</v>
       </c>
@@ -21341,7 +21352,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -21356,13 +21367,13 @@
         <v>4</v>
       </c>
       <c r="D98" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -21376,16 +21387,16 @@
         <v>3</v>
       </c>
       <c r="D99" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>2</v>
       </c>
@@ -21396,13 +21407,13 @@
         <v>1</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
         <v>1</v>
       </c>
@@ -21413,10 +21424,10 @@
         <v>10</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -21461,13 +21472,13 @@
         <v>247</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>346</v>
-      </c>
       <c r="F1" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>133</v>
@@ -21497,10 +21508,10 @@
         <v>125</v>
       </c>
       <c r="P1" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>380</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>381</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>123</v>
@@ -21512,10 +21523,10 @@
         <v>121</v>
       </c>
       <c r="U1" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>343</v>
       </c>
       <c r="W1" s="16" t="s">
         <v>120</v>
@@ -21527,7 +21538,7 @@
         <v>118</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA1" s="16" t="s">
         <v>242</v>
@@ -21550,7 +21561,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -21636,7 +21647,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -21666,22 +21677,22 @@
         <v>16</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -21722,7 +21733,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -21808,7 +21819,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -21835,31 +21846,31 @@
         <v>0</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="W5" s="1">
         <v>0</v>
@@ -21894,7 +21905,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -21924,22 +21935,22 @@
         <v>16</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -21980,34 +21991,34 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>101</v>
@@ -22066,7 +22077,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -22152,7 +22163,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -22182,7 +22193,7 @@
         <v>16</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -22238,7 +22249,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -22265,7 +22276,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>101</v>
@@ -22324,7 +22335,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -22351,10 +22362,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P11" s="2">
         <v>0</v>
@@ -22410,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -22455,13 +22466,13 @@
         <v>1</v>
       </c>
       <c r="T12" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -22496,7 +22507,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -22523,25 +22534,25 @@
         <v>0</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -22582,7 +22593,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -22612,7 +22623,7 @@
         <v>16</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P14" s="2">
         <v>0</v>
@@ -22668,7 +22679,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -22695,10 +22706,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -22754,7 +22765,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -22781,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>98</v>
@@ -22840,7 +22851,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -22926,7 +22937,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -23012,7 +23023,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -23042,7 +23053,7 @@
         <v>16</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
@@ -23098,7 +23109,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -23128,7 +23139,7 @@
         <v>16</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P20" s="2">
         <v>0</v>
@@ -23143,7 +23154,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -23184,7 +23195,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -23211,31 +23222,31 @@
         <v>0</v>
       </c>
       <c r="N21" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>1</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>1</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -23270,7 +23281,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -23300,7 +23311,7 @@
         <v>16</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -23356,7 +23367,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -23407,7 +23418,7 @@
         <v>1</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -23442,7 +23453,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -23528,7 +23539,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -23573,7 +23584,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U25" s="1">
         <v>0</v>
@@ -23614,37 +23625,37 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="O26" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
@@ -23700,7 +23711,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -23730,7 +23741,7 @@
         <v>90</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -23745,7 +23756,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -23786,37 +23797,37 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>

--- a/project_submission/00_project/annotation_data/annotation_data_raw.xlsx
+++ b/project_submission/00_project/annotation_data/annotation_data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasminsarkhosh/Documents/GitHub/machine-learning-bsc-thesis-2024/project_submission/00_project/annotation_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BFDC55-1A26-9141-AF45-7075760F1FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187BA2BA-BB98-8743-9739-604770661235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{BAC2C7AC-FDA5-B444-AA4B-B7C89A61CE88}"/>
   </bookViews>
@@ -7810,24 +7810,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AF35DC2D-D5D1-6741-94D0-D2ED900E093C}" name="merged_annotations_2" displayName="merged_annotations_2" ref="A1:AB101" tableType="queryTable" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
-  <autoFilter ref="A1:AB101" xr:uid="{AF35DC2D-D5D1-6741-94D0-D2ED900E093C}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="3"/>
-        <filter val="4"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="abdomen, thorax, head and neck"/>
-        <filter val="brain, abdomen, pelvic region, prostate, liver"/>
-        <filter val="breast, kidney, renal, colorectal"/>
-        <filter val="colorectal, breast, colon"/>
-        <filter val="liver, lung, lymp nodes"/>
-        <filter val="prostate, brain, abdomen, kidney, liver"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB101" xr:uid="{AF35DC2D-D5D1-6741-94D0-D2ED900E093C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB101">
     <sortCondition ref="A1:A101"/>
   </sortState>
@@ -10987,8 +10970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C433A4-9788-B541-A227-1AF436C695EF}">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection sqref="A1:AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11084,7 +11067,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>116</v>
       </c>
@@ -11170,7 +11153,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>113</v>
       </c>
@@ -11256,7 +11239,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>107</v>
       </c>
@@ -11342,7 +11325,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>104</v>
       </c>
@@ -11428,7 +11411,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>102</v>
       </c>
@@ -11514,7 +11497,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>100</v>
       </c>
@@ -11600,7 +11583,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>97</v>
       </c>
@@ -11686,7 +11669,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>94</v>
       </c>
@@ -11772,7 +11755,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>88</v>
       </c>
@@ -11858,7 +11841,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>82</v>
       </c>
@@ -11944,7 +11927,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
@@ -12030,7 +12013,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>81</v>
       </c>
@@ -12116,7 +12099,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>80</v>
       </c>
@@ -12202,7 +12185,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>79</v>
       </c>
@@ -12374,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>465</v>
       </c>
@@ -12460,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>466</v>
       </c>
@@ -12546,7 +12529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>78</v>
       </c>
@@ -12632,7 +12615,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>77</v>
       </c>
@@ -12718,7 +12701,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -12804,7 +12787,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>74</v>
       </c>
@@ -12890,7 +12873,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>73</v>
       </c>
@@ -12976,7 +12959,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>76</v>
       </c>
@@ -13062,7 +13045,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>72</v>
       </c>
@@ -13148,7 +13131,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>71</v>
       </c>
@@ -13234,7 +13217,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>68</v>
       </c>
@@ -13320,7 +13303,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>67</v>
       </c>
@@ -13406,7 +13389,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
@@ -13492,7 +13475,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
@@ -13578,7 +13561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>64</v>
       </c>
@@ -13750,7 +13733,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>62</v>
       </c>
@@ -13836,7 +13819,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>61</v>
       </c>
@@ -14008,7 +13991,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>60</v>
       </c>
@@ -14094,7 +14077,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>69</v>
       </c>
@@ -14180,7 +14163,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
@@ -14266,7 +14249,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>467</v>
       </c>
@@ -14352,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>58</v>
       </c>
@@ -14438,7 +14421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>57</v>
       </c>
@@ -14524,7 +14507,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>468</v>
       </c>
@@ -14610,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>56</v>
       </c>
@@ -14696,7 +14679,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>55</v>
       </c>
@@ -14782,7 +14765,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>54</v>
       </c>
@@ -14868,7 +14851,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>53</v>
       </c>
@@ -14954,7 +14937,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>52</v>
       </c>
@@ -15040,7 +15023,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>51</v>
       </c>
@@ -15126,7 +15109,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>50</v>
       </c>
@@ -15212,7 +15195,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>49</v>
       </c>
@@ -15298,7 +15281,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>48</v>
       </c>
@@ -15384,7 +15367,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>46</v>
       </c>
@@ -15470,7 +15453,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>45</v>
       </c>
@@ -15642,7 +15625,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>43</v>
       </c>
@@ -15728,7 +15711,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>469</v>
       </c>
@@ -15814,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>41</v>
       </c>
@@ -15900,7 +15883,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>40</v>
       </c>
@@ -15986,7 +15969,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>39</v>
       </c>
@@ -16072,7 +16055,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>38</v>
       </c>
@@ -16158,7 +16141,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>37</v>
       </c>
@@ -16330,7 +16313,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>35</v>
       </c>
@@ -16416,7 +16399,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>42</v>
       </c>
@@ -16502,7 +16485,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>34</v>
       </c>
@@ -16588,7 +16571,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>33</v>
       </c>
@@ -16674,7 +16657,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
         <v>470</v>
       </c>
@@ -16760,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>32</v>
       </c>
@@ -16846,7 +16829,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>31</v>
       </c>
@@ -16932,7 +16915,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>471</v>
       </c>
@@ -17018,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>30</v>
       </c>
@@ -17104,7 +17087,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>29</v>
       </c>
@@ -17276,7 +17259,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>27</v>
       </c>
@@ -17362,7 +17345,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>26</v>
       </c>
@@ -17448,7 +17431,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>25</v>
       </c>
@@ -17534,7 +17517,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>472</v>
       </c>
@@ -17620,7 +17603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>24</v>
       </c>
@@ -17706,7 +17689,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>21</v>
       </c>
@@ -17792,7 +17775,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>20</v>
       </c>
@@ -17878,7 +17861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>23</v>
       </c>
@@ -17964,7 +17947,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>19</v>
       </c>
@@ -18050,7 +18033,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>18</v>
       </c>
@@ -18136,7 +18119,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>473</v>
       </c>
@@ -18222,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>22</v>
       </c>
@@ -18308,7 +18291,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>17</v>
       </c>
@@ -18394,7 +18377,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>14</v>
       </c>
@@ -18480,7 +18463,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>13</v>
       </c>
@@ -18566,7 +18549,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>12</v>
       </c>
@@ -18652,7 +18635,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>11</v>
       </c>
@@ -18738,7 +18721,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>10</v>
       </c>
@@ -18824,7 +18807,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>9</v>
       </c>
@@ -18910,7 +18893,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>8</v>
       </c>
@@ -18996,7 +18979,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>7</v>
       </c>
@@ -19082,7 +19065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>474</v>
       </c>
@@ -19168,7 +19151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>6</v>
       </c>
@@ -19254,7 +19237,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>5</v>
       </c>
@@ -19340,7 +19323,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>4</v>
       </c>
@@ -19426,7 +19409,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>3</v>
       </c>
@@ -19512,7 +19495,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>2</v>
       </c>
@@ -19598,7 +19581,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>1</v>
       </c>
@@ -19836,7 +19819,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>97</v>
       </c>
@@ -19851,7 +19834,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>94</v>
       </c>
@@ -19868,7 +19851,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>88</v>
       </c>
@@ -19900,7 +19883,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
@@ -19917,7 +19900,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>81</v>
       </c>
@@ -19932,7 +19915,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="356" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>80</v>
       </c>
@@ -19952,7 +19935,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>79</v>
       </c>
@@ -19969,7 +19952,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>464</v>
       </c>
@@ -20003,7 +19986,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="340" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>466</v>
       </c>
@@ -20020,7 +20003,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="272" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>78</v>
       </c>
@@ -20105,7 +20088,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>76</v>
       </c>
@@ -20351,7 +20334,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>59</v>
       </c>
@@ -20398,7 +20381,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>57</v>
       </c>
@@ -20450,7 +20433,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>55</v>
       </c>
@@ -20467,7 +20450,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>54</v>
       </c>
@@ -20504,7 +20487,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>52</v>
       </c>
@@ -20618,7 +20601,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>44</v>
       </c>
@@ -20672,7 +20655,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>41</v>
       </c>
@@ -20781,7 +20764,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="356" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>35</v>
       </c>
@@ -20798,7 +20781,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>42</v>
       </c>
@@ -20879,7 +20862,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>31</v>
       </c>
@@ -20945,7 +20928,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>28</v>
       </c>
@@ -20977,7 +20960,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="238" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>26</v>
       </c>
@@ -20997,7 +20980,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>25</v>
       </c>
@@ -21029,7 +21012,7 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>24</v>
       </c>
@@ -21044,7 +21027,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" ht="306" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>21</v>
       </c>
@@ -21061,7 +21044,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="356" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>20</v>
       </c>
@@ -21078,7 +21061,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="306" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>23</v>
       </c>
@@ -21130,7 +21113,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="238" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>473</v>
       </c>
